--- a/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
+++ b/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6520FE-9063-494F-8ACB-C11C56E0A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A23D69-5112-4D88-B591-CB0BB85D23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relatorioMensal!$A$1:$P$145</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2278,7 +2278,7 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="7">
-        <f>L2 + M2 +K2- (G2 + H2 + I2+J2)</f>
+        <f t="shared" ref="N2:N33" si="0">L2 + M2 +K2- (G2 + H2 + I2+J2)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <f>L3 + M3 +K3- (G3 + H3 + I3+J3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="7">
-        <f>L4 + M4 +K4- (G4 + H4 + I4+J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" t="s">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <f>L5 + M5 +K5- (G5 + H5 + I5+J5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" t="s">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <f>L6 + M6 +K6- (G6 + H6 + I6+J6)</f>
+        <f t="shared" si="0"/>
         <v>-9.5</v>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <f>L7 + M7 +K7- (G7 + H7 + I7+J7)</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <f>L8 + M8 +K8- (G8 + H8 + I8+J8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <f>L9 + M9 +K9- (G9 + H9 + I9+J9)</f>
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <f>L10 + M10 +K10- (G10 + H10 + I10+J10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" t="s">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <f>L11 + M11 +K11- (G11 + H11 + I11+J11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" t="s">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <f>L12 + M12 +K12- (G12 + H12 + I12+J12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <f>L13 + M13 +K13- (G13 + H13 + I13+J13)</f>
+        <f t="shared" si="0"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="7">
-        <f>L14 + M14 +K14- (G14 + H14 + I14+J14)</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <f>L15 + M15 +K15- (G15 + H15 + I15+J15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <f>L16 + M16 +K16- (G16 + H16 + I16+J16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" t="s">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="7">
-        <f>L17 + M17 +K17- (G17 + H17 + I17+J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" t="s">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <f>L18 + M18 +K18- (G18 + H18 + I18+J18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <f>L19 + M19 +K19- (G19 + H19 + I19+J19)</f>
+        <f t="shared" si="0"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="7">
-        <f>L20 + M20 +K20- (G20 + H20 + I20+J20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" t="s">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <f>L21 + M21 +K21- (G21 + H21 + I21+J21)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="O21" t="s">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <f>L22 + M22 +K22- (G22 + H22 + I22+J22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O22" t="s">
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <f>L23 + M23 +K23- (G23 + H23 + I23+J23)</f>
+        <f t="shared" si="0"/>
         <v>-24.5</v>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <f>L24 + M24 +K24- (G24 + H24 + I24+J24)</f>
+        <f t="shared" si="0"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="7">
-        <f>L25 + M25 +K25- (G25 + H25 + I25+J25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <f>L26 + M26 +K26- (G26 + H26 + I26+J26)</f>
+        <f t="shared" si="0"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="7">
-        <f>L27 + M27 +K27- (G27 + H27 + I27+J27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" t="s">
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="7">
-        <f>L28 + M28 +K28- (G28 + H28 + I28+J28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" t="s">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="7">
-        <f>L29 + M29 +K29- (G29 + H29 + I29+J29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <f>L30 + M30 +K30- (G30 + H30 + I30+J30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O30" t="s">
@@ -3651,7 +3651,7 @@
         <v>-125</v>
       </c>
       <c r="N31" s="7">
-        <f>L31 + M31 +K31- (G31 + H31 + I31+J31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O31" t="s">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="7">
-        <f>L32 + M32 +K32- (G32 + H32 + I32+J32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O32" t="s">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="7">
-        <f>L33 + M33 +K33- (G33 + H33 + I33+J33)</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="7">
-        <f>L34 + M34 +K34- (G34 + H34 + I34+J34)</f>
+        <f t="shared" ref="N34:N65" si="1">L34 + M34 +K34- (G34 + H34 + I34+J34)</f>
         <v>-22.5</v>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="7">
-        <f>L35 + M35 +K35- (G35 + H35 + I35+J35)</f>
+        <f t="shared" si="1"/>
         <v>-11.5</v>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="7">
-        <f>L36 + M36 +K36- (G36 + H36 + I36+J36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>-100</v>
       </c>
       <c r="N37" s="7">
-        <f>L37 + M37 +K37- (G37 + H37 + I37+J37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" t="s">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="7">
-        <f>L38 + M38 +K38- (G38 + H38 + I38+J38)</f>
+        <f t="shared" si="1"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="7">
-        <f>L39 + M39 +K39- (G39 + H39 + I39+J39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="7">
-        <f>L40 + M40 +K40- (G40 + H40 + I40+J40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="7">
-        <f>L41 + M41 +K41- (G41 + H41 + I41+J41)</f>
+        <f t="shared" si="1"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="7">
-        <f>L42 + M42 +K42- (G42 + H42 + I42+J42)</f>
+        <f t="shared" si="1"/>
         <v>-32.5</v>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="7">
-        <f>L43 + M43 +K43- (G43 + H43 + I43+J43)</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="7">
-        <f>L44 + M44 +K44- (G44 + H44 + I44+J44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O44" t="s">
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="7">
-        <f>L45 + M45 +K45- (G45 + H45 + I45+J45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="7">
-        <f>L46 + M46 +K46- (G46 + H46 + I46+J46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="7">
-        <f>L47 + M47 +K47- (G47 + H47 + I47+J47)</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="7">
-        <f>L48 + M48 +K48- (G48 + H48 + I48+J48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O48" t="s">
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="7">
-        <f>L49 + M49 +K49- (G49 + H49 + I49+J49)</f>
+        <f t="shared" si="1"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="7">
-        <f>L50 + M50 +K50- (G50 + H50 + I50+J50)</f>
+        <f t="shared" si="1"/>
         <v>-19</v>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="7">
-        <f>L51 + M51 +K51- (G51 + H51 + I51+J51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O51" t="s">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="7">
-        <f>L52 + M52 +K52- (G52 + H52 + I52+J52)</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="7">
-        <f>L53 + M53 +K53- (G53 + H53 + I53+J53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="7">
-        <f>L54 + M54 +K54- (G54 + H54 + I54+J54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="7">
-        <f>L55 + M55 +K55- (G55 + H55 + I55+J55)</f>
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="7">
-        <f>L56 + M56 +K56- (G56 + H56 + I56+J56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="7">
-        <f>L57 + M57 +K57- (G57 + H57 + I57+J57)</f>
+        <f t="shared" si="1"/>
         <v>-19.5</v>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="7">
-        <f>L58 + M58 +K58- (G58 + H58 + I58+J58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="7">
-        <f>L59 + M59 +K59- (G59 + H59 + I59+J59)</f>
+        <f t="shared" si="1"/>
         <v>-26.5</v>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
         <v>-115</v>
       </c>
       <c r="N60" s="7">
-        <f>L60 + M60 +K60- (G60 + H60 + I60+J60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O60" t="s">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="7">
-        <f>L61 + M61 +K61- (G61 + H61 + I61+J61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O61" t="s">
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="7">
-        <f>L62 + M62 +K62- (G62 + H62 + I62+J62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O62" t="s">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="7">
-        <f>L63 + M63 +K63- (G63 + H63 + I63+J63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="7">
-        <f>L64 + M64 +K64- (G64 + H64 + I64+J64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="7">
-        <f>L65 + M65 +K65- (G65 + H65 + I65+J65)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="O65" t="s">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="7">
-        <f>L66 + M66 +K66- (G66 + H66 + I66+J66)</f>
+        <f t="shared" ref="N66:N97" si="2">L66 + M66 +K66- (G66 + H66 + I66+J66)</f>
         <v>-7.5</v>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="7">
-        <f>L67 + M67 +K67- (G67 + H67 + I67+J67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O67" t="s">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="7">
-        <f>L68 + M68 +K68- (G68 + H68 + I68+J68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O68" t="s">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="7">
-        <f>L69 + M69 +K69- (G69 + H69 + I69+J69)</f>
+        <f t="shared" si="2"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="7">
-        <f>L70 + M70 +K70- (G70 + H70 + I70+J70)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O70" t="s">
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="7">
-        <f>L71 + M71 +K71- (G71 + H71 + I71+J71)</f>
+        <f t="shared" si="2"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="7">
-        <f>L72 + M72 +K72- (G72 + H72 + I72+J72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O72" t="s">
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="7">
-        <f>L73 + M73 +K73- (G73 + H73 + I73+J73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="7">
-        <f>L74 + M74 +K74- (G74 + H74 + I74+J74)</f>
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="7">
-        <f>L75 + M75 +K75- (G75 + H75 + I75+J75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O75" t="s">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="7">
-        <f>L76 + M76 +K76- (G76 + H76 + I76+J76)</f>
+        <f t="shared" si="2"/>
         <v>-9.5</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="7">
-        <f>L77 + M77 +K77- (G77 + H77 + I77+J77)</f>
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="7">
-        <f>L78 + M78 +K78- (G78 + H78 + I78+J78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O78" t="s">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="7">
-        <f>L79 + M79 +K79- (G79 + H79 + I79+J79)</f>
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="7">
-        <f>L80 + M80 +K80- (G80 + H80 + I80+J80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O80" t="s">
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="7">
-        <f>L81 + M81 +K81- (G81 + H81 + I81+J81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O81" t="s">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="7">
-        <f>L82 + M82 +K82- (G82 + H82 + I82+J82)</f>
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
         <v>-115</v>
       </c>
       <c r="N83" s="7">
-        <f>L83 + M83 +K83- (G83 + H83 + I83+J83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O83" t="s">
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="7">
-        <f>L84 + M84 +K84- (G84 + H84 + I84+J84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O84" t="s">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="7">
-        <f>L85 + M85 +K85- (G85 + H85 + I85+J85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="7">
-        <f>L86 + M86 +K86- (G86 + H86 + I86+J86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="7">
-        <f>L87 + M87 +K87- (G87 + H87 + I87+J87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O87" t="s">
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="7">
-        <f>L88 + M88 +K88- (G88 + H88 + I88+J88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O88" t="s">
@@ -6153,7 +6153,7 @@
         <v>-125</v>
       </c>
       <c r="N89" s="7">
-        <f>L89 + M89 +K89- (G89 + H89 + I89+J89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O89" t="s">
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="7">
-        <f>L90 + M90 +K90- (G90 + H90 + I90+J90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O90" t="s">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="7">
-        <f>L91 + M91 +K91- (G91 + H91 + I91+J91)</f>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="O91" t="s">
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="7">
-        <f>L92 + M92 +K92- (G92 + H92 + I92+J92)</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="N93" s="7">
-        <f>L93 + M93 +K93- (G93 + H93 + I93+J93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="7">
-        <f>L94 + M94 +K94- (G94 + H94 + I94+J94)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="7">
-        <f>L95 + M95 +K95- (G95 + H95 + I95+J95)</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="7">
-        <f>L96 + M96 +K96- (G96 + H96 + I96+J96)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="7">
-        <f>L97 + M97 +K97- (G97 + H97 + I97+J97)</f>
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="7">
-        <f>L98 + M98 +K98- (G98 + H98 + I98+J98)</f>
+        <f t="shared" ref="N98:N129" si="3">L98 + M98 +K98- (G98 + H98 + I98+J98)</f>
         <v>0</v>
       </c>
       <c r="O98" t="s">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="7">
-        <f>L99 + M99 +K99- (G99 + H99 + I99+J99)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="O99" t="s">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="7">
-        <f>L100 + M100 +K100- (G100 + H100 + I100+J100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="7">
-        <f>L101 + M101 +K101- (G101 + H101 + I101+J101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O101" t="s">
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="7">
-        <f>L102 + M102 +K102- (G102 + H102 + I102+J102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O102" t="s">
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="N103" s="7">
-        <f>L103 + M103 +K103- (G103 + H103 + I103+J103)</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="N104" s="7">
-        <f>L104 + M104 +K104- (G104 + H104 + I104+J104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O104" t="s">
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="7">
-        <f>L105 + M105 +K105- (G105 + H105 + I105+J105)</f>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="7">
-        <f>L106 + M106 +K106- (G106 + H106 + I106+J106)</f>
+        <f t="shared" si="3"/>
         <v>-11.5</v>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="N107" s="7">
-        <f>L107 + M107 +K107- (G107 + H107 + I107+J107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O107" t="s">
@@ -6979,7 +6979,7 @@
         <v>-125</v>
       </c>
       <c r="N108" s="7">
-        <f>L108 + M108 +K108- (G108 + H108 + I108+J108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O108" t="s">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="N109" s="7">
-        <f>L109 + M109 +K109- (G109 + H109 + I109+J109)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="O109" t="s">
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="7">
-        <f>L110 + M110 +K110- (G110 + H110 + I110+J110)</f>
+        <f t="shared" si="3"/>
         <v>-32.5</v>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="N111" s="7">
-        <f>L111 + M111 +K111- (G111 + H111 + I111+J111)</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="N112" s="7">
-        <f>L112 + M112 +K112- (G112 + H112 + I112+J112)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="O112" t="s">
@@ -7201,11 +7201,11 @@
         <v>0</v>
       </c>
       <c r="M113" s="6">
-        <v>0</v>
+        <v>-77.5</v>
       </c>
       <c r="N113" s="7">
-        <f>L113 + M113 +K113- (G113 + H113 + I113+J113)</f>
-        <v>-22.5</v>
+        <f t="shared" si="3"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="N114" s="7">
-        <f>L114 + M114 +K114- (G114 + H114 + I114+J114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="N115" s="7">
-        <f>L115 + M115 +K115- (G115 + H115 + I115+J115)</f>
+        <f t="shared" si="3"/>
         <v>-32.5</v>
       </c>
     </row>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="N116" s="7">
-        <f>L116 + M116 +K116- (G116 + H116 + I116+J116)</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="N117" s="7">
-        <f>L117 + M117 +K117- (G117 + H117 + I117+J117)</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="7">
-        <f>L118 + M118 +K118- (G118 + H118 + I118+J118)</f>
+        <f t="shared" si="3"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="N119" s="7">
-        <f>L119 + M119 +K119- (G119 + H119 + I119+J119)</f>
+        <f t="shared" si="3"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="7">
-        <f>L120 + M120 +K120- (G120 + H120 + I120+J120)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="O120" t="s">
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="N121" s="7">
-        <f>L121 + M121 +K121- (G121 + H121 + I121+J121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="7">
-        <f>L122 + M122 +K122- (G122 + H122 + I122+J122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O122" t="s">
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="7">
-        <f>L123 + M123 +K123- (G123 + H123 + I123+J123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O123" t="s">
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="7">
-        <f>L124 + M124 +K124- (G124 + H124 + I124+J124)</f>
+        <f t="shared" si="3"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="N125" s="7">
-        <f>L125 + M125 +K125- (G125 + H125 + I125+J125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O125" t="s">
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="7">
-        <f>L126 + M126 +K126- (G126 + H126 + I126+J126)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O126" t="s">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="N127" s="7">
-        <f>L127 + M127 +K127- (G127 + H127 + I127+J127)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="7">
-        <f>L128 + M128 +K128- (G128 + H128 + I128+J128)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="O128" t="s">
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="7">
-        <f>L129 + M129 +K129- (G129 + H129 + I129+J129)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O129" t="s">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="N130" s="7">
-        <f>L130 + M130 +K130- (G130 + H130 + I130+J130)</f>
+        <f t="shared" ref="N130:N161" si="4">L130 + M130 +K130- (G130 + H130 + I130+J130)</f>
         <v>-7.5</v>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="N131" s="7">
-        <f>L131 + M131 +K131- (G131 + H131 + I131+J131)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="N132" s="7">
-        <f>L132 + M132 +K132- (G132 + H132 + I132+J132)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O132" t="s">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="7">
-        <f>L133 + M133 +K133- (G133 + H133 + I133+J133)</f>
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="N134" s="7">
-        <f>L134 + M134 +K134- (G134 + H134 + I134+J134)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O134" t="s">
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="7">
-        <f>L135 + M135 +K135- (G135 + H135 + I135+J135)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O135" t="s">
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="7">
-        <f>L136 + M136 +K136- (G136 + H136 + I136+J136)</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="7">
-        <f>L137 + M137 +K137- (G137 + H137 + I137+J137)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="7">
-        <f>L138 + M138 +K138- (G138 + H138 + I138+J138)</f>
+        <f t="shared" si="4"/>
         <v>-22.5</v>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="N139" s="7">
-        <f>L139 + M139 +K139- (G139 + H139 + I139+J139)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O139" t="s">
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="7">
-        <f>L140 + M140 +K140- (G140 + H140 + I140+J140)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O140" t="s">
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="7">
-        <f>L141 + M141 +K141- (G141 + H141 + I141+J141)</f>
+        <f t="shared" si="4"/>
         <v>-15</v>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="7">
-        <f>L142 + M142 +K142- (G142 + H142 + I142+J142)</f>
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="N143" s="7">
-        <f>L143 + M143 +K143- (G143 + H143 + I143+J143)</f>
+        <f t="shared" si="4"/>
         <v>-7.5</v>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="N144" s="7">
-        <f>L144 + M144 +K144- (G144 + H144 + I144+J144)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="N145" s="7">
-        <f>L145 + M145 +K145- (G145 + H145 + I145+J145)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>

--- a/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
+++ b/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A23D69-5112-4D88-B591-CB0BB85D23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951D340-FBD2-41FF-BC76-F190769233ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="323">
   <si>
     <t>Nome</t>
   </si>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t>306789825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobrado só 3,75 por 1/2 Lanche </t>
   </si>
 </sst>
 </file>
@@ -2277,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,8 +3119,8 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>18</v>
+      <c r="I19" s="4">
+        <v>3.75</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4">
@@ -3131,7 +3134,10 @@
       </c>
       <c r="N19" s="7">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>-3.75</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,8 +4314,8 @@
       <c r="H47" s="4">
         <v>0</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>18</v>
+      <c r="I47" s="4">
+        <v>3.75</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="4">
@@ -4323,7 +4329,10 @@
       </c>
       <c r="N47" s="7">
         <f t="shared" si="1"/>
-        <v>-7.5</v>
+        <v>-3.75</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,9 +4951,7 @@
       <c r="H62" s="4">
         <v>0</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I62" s="4"/>
       <c r="J62" s="5">
         <v>25</v>
       </c>
@@ -4959,7 +4966,7 @@
       </c>
       <c r="N62" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O62" t="s">
         <v>19</v>
@@ -7939,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="N130" s="7">
-        <f t="shared" ref="N130:N161" si="4">L130 + M130 +K130- (G130 + H130 + I130+J130)</f>
+        <f t="shared" ref="N130:N145" si="4">L130 + M130 +K130- (G130 + H130 + I130+J130)</f>
         <v>-7.5</v>
       </c>
     </row>

--- a/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
+++ b/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="326">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -112,504 +112,510 @@
     <t xml:space="preserve">289953316</t>
   </si>
   <si>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF 1€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Monteiro Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300813775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Oliveira Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307498190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Silva Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290649064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvaro Miguel Miranda da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285029908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Beatriz Coelho Inácio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294314008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antónia Moreira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288824520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariana Patrícia da Silva Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294458310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aseda Ilídia Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303197951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Oliveira Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289996570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Sofia Machado Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293154252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedita Maia Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291482376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamim Alexandre Ribeiro Alves dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298828626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina Maria Teixeira Fernandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284615846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Filipa Jesus Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306436043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobrado só 3,75 por 1/2 Lanche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Lebber de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303282355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Brás Lopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306150352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente para proximo mês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara da Costa Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307019420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Sofia Maia Amorim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297621556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dailson Dinis Soares Soares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Afonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285685376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Almeida Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286101386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Coutinho Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305801384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Filipe Bessa Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291209890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Pinheiro Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302609628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diogo André Valadares de Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292724411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domingos Mateus Ferreira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304866814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Coutinho Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288353005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Dias Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287986489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Ferreira Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306021153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Filipe Rocha Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294437452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Salvador Borges Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292995962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Barbosa da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287455114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobrado só 7.5 por 1/2 CAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisca Carolina dos Santos Figueiredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290483948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Cunha Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303001879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Ferreira da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287949320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Manuel Lima Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287525422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Moreira Maia da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286049732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Rafael Pereira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289827167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Alejandro da Torre Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298794284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Bogas Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289954339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Viage Martins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290608600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Gomes da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292458118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glória Maia da Silva Queiroz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304586153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo Ferreira Alves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296838098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo José Rocha Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304289027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo Moreira Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295962968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Alexandre Cerqueira Afonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294858016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Duarte Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306677741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Amaral Martins Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295256893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo David da Silva Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285445626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iara Mendes Castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290188881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joana Grade Delest Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290733480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF 3€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Guilherme Santos Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300686439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Pereira Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294086803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Martim Silva Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293669155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF 9€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júlia Filipa Inácio Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294138170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF 11€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Beatriz Dias Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289182573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Lauerlann Lemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324452136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Moreira Costa Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288966252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonor Brás Lopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306151197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonor Gradim da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295955694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonor Margarida Moreira Faria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292614292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia Azevedo Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304693057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia Daniela Pereira Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300369077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia Maria Sousa Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294517022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenço da Silva Maia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284684813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenço Gomes Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303976047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenço Ribeiro Assunção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306282100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenzo Pandolpho Pimentel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319224732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Pereira José e Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294490094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Rocha Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305889605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucilia Luciana Ramirez Pelayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325261180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luís Miguel Inácio Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284925683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF (11€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Alexandra Porto Soares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290413206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Ferreira Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289567882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Moreira Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289279429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Sofia Pereira Loureiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318126885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Sofia Rodrigues Fragoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290677599</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frequentou menos doque pagou CAF 1€</t>
   </si>
   <si>
-    <t xml:space="preserve">Afonso Monteiro Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300813775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Oliveira Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307498190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Silva Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290649064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro Miguel Miranda da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285029908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Beatriz Coelho Inácio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294314008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antónia Moreira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288824520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariana Patrícia da Silva Sousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294458310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aseda Ilídia Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303197951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Oliveira Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289996570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Sofia Machado Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293154252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benedita Maia Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291482376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamim Alexandre Ribeiro Alves dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298828626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carina Maria Teixeira Fernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284615846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Filipa Jesus Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306436043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobrado só 3,75 por 1/2 Lanche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher Lebber de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303282355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Brás Lopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306150352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente para prox mês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara da Costa Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307019420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Sofia Maia Amorim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297621556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dailson Dinis Soares Soares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Afonso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285685376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Almeida Magalhães</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286101386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Coutinho Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305801384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Filipe Bessa Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291209890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Pinheiro Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302609628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diogo André Valadares de Sousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292724411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domingos Mateus Ferreira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304866814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Coutinho Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288353005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Dias Carvalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287986489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Ferreira Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306021153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Filipe Rocha Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294437452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Salvador Borges Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292995962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Barbosa da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287455114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobrado só 7.5 por 1/2 CAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisca Carolina dos Santos Figueiredo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290483948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Cunha Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303001879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Ferreira da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287949320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Manuel Lima Correia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287525422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Moreira Maia da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286049732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Rafael Pereira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289827167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Alejandro da Torre Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298794284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Bogas Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289954339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Viage Martins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290608600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Gomes da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292458118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glória Maia da Silva Queiroz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304586153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo Ferreira Alves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296838098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo José Rocha Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304289027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo Moreira Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295962968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Alexandre Cerqueira Afonso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294858016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Duarte Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306677741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Amaral Martins Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295256893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo David da Silva Pinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285445626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iara Mendes Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290188881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joana Grade Delest Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290733480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Guilherme Santos Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300686439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Pereira Rios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294086803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Martim Silva Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293669155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequentou menos doque pagou CAF 9€</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Júlia Filipa Inácio Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294138170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequentou menos doque pagou CAF 11€</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lara Beatriz Dias Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289182573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Lauerlann Lemos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324452136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Moreira Costa Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288966252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonor Brás Lopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306151197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonor Gradim da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295955694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonor Margarida Moreira Faria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292614292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letícia Azevedo Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304693057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letícia Daniela Pereira Teixeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300369077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letícia Maria Sousa Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294517022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenço da Silva Maia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284684813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenço Gomes Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303976047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenço Ribeiro Assunção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306282100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenzo Pandolpho Pimentel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319224732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Pereira José e Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294490094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Rocha Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305889605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucilia Luciana Ramirez Pelayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325261180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luís Miguel Inácio Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284925683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequentou menos do que pagou CAF (11€)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Alexandra Porto Soares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290413206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Ferreira Sousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289567882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Moreira Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289279429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Sofia Pereira Loureiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318126885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Sofia Rodrigues Fragoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">290677599</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manuel Alejandro da Torre Madrid</t>
   </si>
   <si>
@@ -682,6 +688,9 @@
     <t xml:space="preserve">291519180</t>
   </si>
   <si>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF 5€</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maria Oliveira Maia</t>
   </si>
   <si>
@@ -706,7 +715,7 @@
     <t xml:space="preserve">298986752</t>
   </si>
   <si>
-    <t xml:space="preserve">Excedente para prox mês (20€ + (falta 5€ cota))</t>
+    <t xml:space="preserve">Excedente para próximo mês (20€ + (falta 5€ cota))</t>
   </si>
   <si>
     <t xml:space="preserve">Martim Freitas da Silva</t>
@@ -727,7 +736,7 @@
     <t xml:space="preserve">305302639</t>
   </si>
   <si>
-    <t xml:space="preserve">Frequentou menos doque pagou CAF 10€</t>
+    <t xml:space="preserve">Frequentou menos do que pagou CAF 10€</t>
   </si>
   <si>
     <t xml:space="preserve">Martim Vieira Gomes</t>
@@ -1164,7 +1173,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1198,6 +1207,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2104,27 +2117,26 @@
   </sheetPr>
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L44" activeCellId="0" sqref="L44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="43.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2400,6 +2412,9 @@
         <f aca="false">L6 + M6 +K6- (G6 + H6 + I6+J6)</f>
         <v>0</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -2445,6 +2460,9 @@
         <f aca="false">L7 + M7 +K7- (G7 + H7 + I7+J7)</f>
         <v>0</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -2700,6 +2718,9 @@
       <c r="N13" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -2745,6 +2766,9 @@
         <f aca="false">L14 + M14 +K14- (G14 + H14 + I14+J14)</f>
         <v>0</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -2961,7 +2985,10 @@
         <f aca="false">L19 + M19 +K19- (G19 + H19 + I19+J19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="O19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3055,7 +3082,7 @@
       <c r="O21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3146,6 +3173,9 @@
         <f aca="false">L23 + M23 +K23- (G23 + H23 + I23+J23)</f>
         <v>0</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -3266,6 +3296,9 @@
         <f aca="false">L26 + M26 +K26- (G26 + H26 + I26+J26)</f>
         <v>0</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -3744,7 +3777,7 @@
       <c r="O37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P37" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3907,6 +3940,9 @@
         <f aca="false">L41 + M41 +K41- (G41 + H41 + I41+J41)</f>
         <v>0</v>
       </c>
+      <c r="O41" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -3947,6 +3983,9 @@
         <f aca="false">L42 + M42 +K42- (G42 + H42 + I42+J42)</f>
         <v>0</v>
       </c>
+      <c r="O42" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
@@ -4156,7 +4195,10 @@
         <f aca="false">L47 + M47 +K47- (G47 + H47 + I47+J47)</f>
         <v>0</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="O47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4255,6 +4297,9 @@
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>125</v>
       </c>
@@ -4288,6 +4333,9 @@
       <c r="N50" s="7" t="n">
         <f aca="false">L50 + M50 +K50- (G50 + H50 + I50+J50)</f>
         <v>0</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4372,6 +4420,9 @@
         <f aca="false">L52 + M52 +K52- (G52 + H52 + I52+J52)</f>
         <v>0</v>
       </c>
+      <c r="O52" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
@@ -4492,6 +4543,9 @@
         <f aca="false">L55 + M55 +K55- (G55 + H55 + I55+J55)</f>
         <v>0</v>
       </c>
+      <c r="O55" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -4572,16 +4626,22 @@
         <f aca="false">L57 + M57 +K57- (G57 + H57 + I57+J57)</f>
         <v>0</v>
       </c>
+      <c r="O57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>0</v>
@@ -4615,13 +4675,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>2</v>
@@ -4652,10 +4712,13 @@
         <f aca="false">L59 + M59 +K59- (G59 + H59 + I59+J59)</f>
         <v>0</v>
       </c>
+      <c r="O59" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>40</v>
@@ -4664,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>1</v>
@@ -4702,18 +4765,18 @@
         <v>19</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>3</v>
@@ -4748,12 +4811,12 @@
         <v>19</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>43</v>
@@ -4762,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>0</v>
@@ -4799,13 +4862,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>0</v>
@@ -4839,13 +4902,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>0</v>
@@ -4879,7 +4942,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
@@ -4888,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>11</v>
@@ -4924,19 +4987,19 @@
       <c r="O65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P65" s="10" t="s">
+      <c r="P65" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>0</v>
@@ -4967,10 +5030,13 @@
         <f aca="false">L66 + M66 +K66- (G66 + H66 + I66+J66)</f>
         <v>0</v>
       </c>
+      <c r="O66" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>43</v>
@@ -4979,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>0</v>
@@ -5018,7 +5084,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>16</v>
@@ -5027,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>0</v>
@@ -5066,13 +5132,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>9</v>
@@ -5103,10 +5169,13 @@
         <f aca="false">L69 + M69 +K69- (G69 + H69 + I69+J69)</f>
         <v>0</v>
       </c>
+      <c r="O69" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>27</v>
@@ -5115,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>0</v>
@@ -5151,19 +5220,19 @@
       <c r="O70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P70" s="10" t="s">
+      <c r="P70" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>11</v>
@@ -5197,7 +5266,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
@@ -5206,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>11</v>
@@ -5245,13 +5314,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>0</v>
@@ -5285,13 +5354,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>0</v>
@@ -5325,7 +5394,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>40</v>
@@ -5334,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>0</v>
@@ -5373,13 +5442,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>1</v>
@@ -5413,13 +5482,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>9</v>
@@ -5450,16 +5519,19 @@
         <f aca="false">L77 + M77 +K77- (G77 + H77 + I77+J77)</f>
         <v>0</v>
       </c>
+      <c r="O77" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>3</v>
@@ -5494,18 +5566,18 @@
         <v>19</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>0</v>
@@ -5536,10 +5608,13 @@
         <f aca="false">L79 + M79 +K79- (G79 + H79 + I79+J79)</f>
         <v>0</v>
       </c>
+      <c r="O79" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>43</v>
@@ -5548,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>0</v>
@@ -5587,7 +5662,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>43</v>
@@ -5596,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>0</v>
@@ -5635,13 +5710,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>0</v>
@@ -5672,10 +5747,13 @@
         <f aca="false">L82 + M82 +K82- (G82 + H82 + I82+J82)</f>
         <v>0</v>
       </c>
+      <c r="O82" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>43</v>
@@ -5684,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>7</v>
@@ -5721,12 +5799,12 @@
         <v>19</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>40</v>
@@ -5735,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>0</v>
@@ -5775,13 +5853,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>0</v>
@@ -5815,13 +5893,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>0</v>
@@ -5855,7 +5933,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>24</v>
@@ -5864,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>12</v>
@@ -5903,7 +5981,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>35</v>
@@ -5912,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>0</v>
@@ -5951,13 +6029,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>12</v>
@@ -5994,13 +6072,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>12</v>
@@ -6037,7 +6115,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>40</v>
@@ -6046,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>11</v>
@@ -6082,19 +6160,19 @@
       <c r="O91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="10" t="s">
+      <c r="P91" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E92" s="1" t="n">
         <v>1</v>
@@ -6128,13 +6206,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>0</v>
@@ -6168,13 +6246,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>1</v>
@@ -6205,16 +6283,19 @@
         <f aca="false">L94 + M94 +K94- (G94 + H94 + I94+J94)</f>
         <v>0</v>
       </c>
+      <c r="O94" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>0</v>
@@ -6223,7 +6304,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H95" s="5" t="n">
         <v>0</v>
@@ -6236,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="5" t="n">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="M95" s="6" t="n">
         <v>0</v>
@@ -6245,16 +6326,22 @@
         <f aca="false">L95 + M95 +K95- (G95 + H95 + I95+J95)</f>
         <v>0</v>
       </c>
+      <c r="O95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>0</v>
@@ -6288,13 +6375,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>0</v>
@@ -6325,10 +6412,13 @@
         <f aca="false">L97 + M97 +K97- (G97 + H97 + I97+J97)</f>
         <v>0</v>
       </c>
+      <c r="O97" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>43</v>
@@ -6337,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>0</v>
@@ -6376,13 +6466,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>11</v>
@@ -6399,7 +6489,7 @@
       <c r="I99" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="11"/>
+      <c r="J99" s="12"/>
       <c r="K99" s="5" t="n">
         <v>0</v>
       </c>
@@ -6416,19 +6506,19 @@
       <c r="O99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P99" s="10" t="s">
-        <v>227</v>
+      <c r="P99" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>0</v>
@@ -6462,7 +6552,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>21</v>
@@ -6471,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>0</v>
@@ -6510,7 +6600,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
@@ -6519,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E102" s="1" t="n">
         <v>10</v>
@@ -6556,18 +6646,18 @@
         <v>19</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E103" s="1" t="n">
         <v>0</v>
@@ -6598,10 +6688,13 @@
         <f aca="false">L103 + M103 +K103- (G103 + H103 + I103+J103)</f>
         <v>0</v>
       </c>
+      <c r="O103" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>21</v>
@@ -6610,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>12</v>
@@ -6649,13 +6742,13 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>10</v>
@@ -6689,13 +6782,13 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>2</v>
@@ -6729,7 +6822,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
@@ -6738,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>0</v>
@@ -6777,13 +6870,13 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>12</v>
@@ -6820,7 +6913,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>27</v>
@@ -6829,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>0</v>
@@ -6865,19 +6958,19 @@
       <c r="O109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P109" s="9" t="s">
-        <v>249</v>
+      <c r="P109" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E110" s="1" t="n">
         <v>12</v>
@@ -6911,13 +7004,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E111" s="1" t="n">
         <v>0</v>
@@ -6951,7 +7044,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>16</v>
@@ -6960,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E112" s="1" t="n">
         <v>12</v>
@@ -6996,19 +7089,19 @@
       <c r="O112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P112" s="10" t="s">
+      <c r="P112" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>0</v>
@@ -7039,16 +7132,19 @@
         <f aca="false">L113 + M113 +K113- (G113 + H113 + I113+J113)</f>
         <v>0</v>
       </c>
+      <c r="O113" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>0</v>
@@ -7082,13 +7178,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>11</v>
@@ -7119,16 +7215,19 @@
         <f aca="false">L115 + M115 +K115- (G115 + H115 + I115+J115)</f>
         <v>0</v>
       </c>
+      <c r="O115" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>0</v>
@@ -7159,16 +7258,19 @@
         <f aca="false">L116 + M116 +K116- (G116 + H116 + I116+J116)</f>
         <v>0</v>
       </c>
+      <c r="O116" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>0</v>
@@ -7199,16 +7301,19 @@
         <f aca="false">L117 + M117 +K117- (G117 + H117 + I117+J117)</f>
         <v>0</v>
       </c>
+      <c r="O117" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E118" s="1" t="n">
         <v>0</v>
@@ -7242,13 +7347,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>11</v>
@@ -7279,10 +7384,13 @@
         <f aca="false">L119 + M119 +K119- (G119 + H119 + I119+J119)</f>
         <v>0</v>
       </c>
+      <c r="O119" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>43</v>
@@ -7291,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>0</v>
@@ -7327,19 +7435,19 @@
       <c r="O120" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P120" s="10" t="s">
+      <c r="P120" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>0</v>
@@ -7373,13 +7481,13 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>12</v>
@@ -7414,12 +7522,12 @@
         <v>19</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>16</v>
@@ -7428,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>0</v>
@@ -7467,13 +7575,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>12</v>
@@ -7504,10 +7612,13 @@
         <f aca="false">L124 + M124 +K124- (G124 + H124 + I124+J124)</f>
         <v>0</v>
       </c>
+      <c r="O124" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>24</v>
@@ -7516,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>0</v>
@@ -7555,7 +7666,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>24</v>
@@ -7564,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>11</v>
@@ -7603,13 +7714,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E127" s="1" t="n">
         <v>12</v>
@@ -7640,16 +7751,19 @@
         <f aca="false">L127 + M127 +K127- (G127 + H127 + I127+J127)</f>
         <v>0</v>
       </c>
+      <c r="O127" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E128" s="1" t="n">
         <v>0</v>
@@ -7683,13 +7797,13 @@
       <c r="O128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P128" s="10" t="s">
+      <c r="P128" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>24</v>
@@ -7698,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E129" s="1" t="n">
         <v>0</v>
@@ -7737,13 +7851,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E130" s="1" t="n">
         <v>0</v>
@@ -7774,16 +7888,19 @@
         <f aca="false">L130 + M130 +K130- (G130 + H130 + I130+J130)</f>
         <v>0</v>
       </c>
+      <c r="O130" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E131" s="1" t="n">
         <v>0</v>
@@ -7817,7 +7934,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>16</v>
@@ -7826,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E132" s="1" t="n">
         <v>0</v>
@@ -7865,13 +7982,13 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E133" s="1" t="n">
         <v>0</v>
@@ -7905,13 +8022,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E134" s="1" t="n">
         <v>0</v>
@@ -7948,7 +8065,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>40</v>
@@ -7957,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E135" s="1" t="n">
         <v>0</v>
@@ -7996,13 +8113,13 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E136" s="1" t="n">
         <v>1</v>
@@ -8033,16 +8150,19 @@
         <f aca="false">L136 + M136 +K136- (G136 + H136 + I136+J136)</f>
         <v>0</v>
       </c>
+      <c r="O136" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E137" s="1" t="n">
         <v>0</v>
@@ -8076,13 +8196,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E138" s="1" t="n">
         <v>0</v>
@@ -8113,10 +8233,13 @@
         <f aca="false">L138 + M138 +K138- (G138 + H138 + I138+J138)</f>
         <v>0</v>
       </c>
+      <c r="O138" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>27</v>
@@ -8125,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E139" s="1" t="n">
         <v>3</v>
@@ -8162,12 +8285,12 @@
         <v>19</v>
       </c>
       <c r="P139" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>24</v>
@@ -8176,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E140" s="1" t="n">
         <v>12</v>
@@ -8215,13 +8338,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E141" s="1" t="n">
         <v>9</v>
@@ -8252,16 +8375,19 @@
         <f aca="false">L141 + M141 +K141- (G141 + H141 + I141+J141)</f>
         <v>0</v>
       </c>
+      <c r="O141" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E142" s="1" t="n">
         <v>0</v>
@@ -8295,13 +8421,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E143" s="1" t="n">
         <v>0</v>
@@ -8335,13 +8461,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E144" s="1" t="n">
         <v>1</v>
@@ -8375,13 +8501,13 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E145" s="1" t="n">
         <v>1</v>

--- a/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
+++ b/GestorReceitas/Setembro/relatorioMensal_setembro.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="327">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">303530561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validado</t>
   </si>
   <si>
     <t xml:space="preserve">Afonso Filipe Pereira de Oliveira Santos</t>
@@ -2117,11 +2120,11 @@
   </sheetPr>
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3:O145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.67"/>
@@ -2273,19 +2276,22 @@
         <f aca="false">L3 + M3 +K3- (G3 + H3 + I3+J3)</f>
         <v>0</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
@@ -2324,16 +2330,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>7</v>
@@ -2370,18 +2376,18 @@
         <v>19</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -2427,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>5</v>
@@ -2466,13 +2472,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
@@ -2503,16 +2509,19 @@
         <f aca="false">L8 + M8 +K8- (G8 + H8 + I8+J8)</f>
         <v>0</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>8</v>
@@ -2546,16 +2555,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>11</v>
@@ -2594,16 +2603,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
@@ -2642,13 +2651,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0</v>
@@ -2679,16 +2688,19 @@
         <f aca="false">L12 + M12 +K12- (G12 + H12 + I12+J12)</f>
         <v>0</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>11</v>
@@ -2724,16 +2736,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>6</v>
@@ -2772,13 +2784,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
@@ -2809,19 +2821,22 @@
         <f aca="false">L15 + M15 +K15- (G15 + H15 + I15+J15)</f>
         <v>0</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0</v>
@@ -2860,7 +2875,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
@@ -2869,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0</v>
@@ -2908,13 +2923,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0</v>
@@ -2945,16 +2960,19 @@
         <f aca="false">L18 + M18 +K18- (G18 + H18 + I18+J18)</f>
         <v>0</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>0</v>
@@ -2989,18 +3007,18 @@
         <v>19</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0</v>
@@ -3037,7 +3055,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -3046,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>11</v>
@@ -3083,12 +3101,12 @@
         <v>19</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -3097,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>0</v>
@@ -3136,13 +3154,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>1</v>
@@ -3179,13 +3197,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>0</v>
@@ -3219,13 +3237,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>0</v>
@@ -3256,16 +3274,19 @@
         <f aca="false">L25 + M25 +K25- (G25 + H25 + I25+J25)</f>
         <v>0</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>12</v>
@@ -3302,7 +3323,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -3311,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>0</v>
@@ -3350,16 +3371,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>11</v>
@@ -3398,13 +3419,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>0</v>
@@ -3435,16 +3456,19 @@
         <f aca="false">L29 + M29 +K29- (G29 + H29 + I29+J29)</f>
         <v>0</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>0</v>
@@ -3481,13 +3505,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>12</v>
@@ -3524,16 +3548,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>0</v>
@@ -3572,13 +3596,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>0</v>
@@ -3612,13 +3636,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>11</v>
@@ -3652,13 +3676,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>2</v>
@@ -3692,13 +3716,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>0</v>
@@ -3729,19 +3753,22 @@
         <f aca="false">L36 + M36 +K36- (G36 + H36 + I36+J36)</f>
         <v>0</v>
       </c>
+      <c r="O36" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>5</v>
@@ -3778,18 +3805,18 @@
         <v>19</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>9</v>
@@ -3823,13 +3850,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>0</v>
@@ -3860,16 +3887,19 @@
         <f aca="false">L39 + M39 +K39- (G39 + H39 + I39+J39)</f>
         <v>0</v>
       </c>
+      <c r="O39" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>0</v>
@@ -3900,16 +3930,19 @@
         <f aca="false">L40 + M40 +K40- (G40 + H40 + I40+J40)</f>
         <v>0</v>
       </c>
+      <c r="O40" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>12</v>
@@ -3946,13 +3979,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>5</v>
@@ -3989,13 +4022,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>0</v>
@@ -4009,8 +4042,8 @@
       <c r="H43" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>18</v>
+      <c r="I43" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="n">
@@ -4024,21 +4057,24 @@
       </c>
       <c r="N43" s="7" t="n">
         <f aca="false">L43 + M43 +K43- (G43 + H43 + I43+J43)</f>
-        <v>-7.5</v>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>0</v>
@@ -4078,13 +4114,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>0</v>
@@ -4115,16 +4151,19 @@
         <f aca="false">L45 + M45 +K45- (G45 + H45 + I45+J45)</f>
         <v>0</v>
       </c>
+      <c r="O45" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>0</v>
@@ -4155,16 +4194,19 @@
         <f aca="false">L46 + M46 +K46- (G46 + H46 + I46+J46)</f>
         <v>0</v>
       </c>
+      <c r="O46" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>0</v>
@@ -4199,12 +4241,12 @@
         <v>19</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
@@ -4213,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>0</v>
@@ -4252,13 +4294,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>0</v>
@@ -4292,7 +4334,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>16</v>
@@ -4301,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>12</v>
@@ -4340,13 +4382,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>12</v>
@@ -4383,13 +4425,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>0</v>
@@ -4426,13 +4468,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>0</v>
@@ -4463,16 +4505,19 @@
         <f aca="false">L53 + M53 +K53- (G53 + H53 + I53+J53)</f>
         <v>0</v>
       </c>
+      <c r="O53" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>0</v>
@@ -4503,16 +4548,19 @@
         <f aca="false">L54 + M54 +K54- (G54 + H54 + I54+J54)</f>
         <v>0</v>
       </c>
+      <c r="O54" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>0</v>
@@ -4549,13 +4597,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>0</v>
@@ -4586,16 +4634,19 @@
         <f aca="false">L56 + M56 +K56- (G56 + H56 + I56+J56)</f>
         <v>0</v>
       </c>
+      <c r="O56" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>6</v>
@@ -4630,18 +4681,18 @@
         <v>19</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>0</v>
@@ -4672,16 +4723,19 @@
         <f aca="false">L58 + M58 +K58- (G58 + H58 + I58+J58)</f>
         <v>0</v>
       </c>
+      <c r="O58" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>2</v>
@@ -4718,16 +4772,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>1</v>
@@ -4765,18 +4819,18 @@
         <v>19</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>3</v>
@@ -4811,21 +4865,21 @@
         <v>19</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>0</v>
@@ -4862,13 +4916,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>0</v>
@@ -4899,16 +4953,19 @@
         <f aca="false">L63 + M63 +K63- (G63 + H63 + I63+J63)</f>
         <v>0</v>
       </c>
+      <c r="O63" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>0</v>
@@ -4939,10 +4996,13 @@
         <f aca="false">L64 + M64 +K64- (G64 + H64 + I64+J64)</f>
         <v>0</v>
       </c>
+      <c r="O64" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
@@ -4951,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>11</v>
@@ -4988,18 +5048,18 @@
         <v>19</v>
       </c>
       <c r="P65" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>0</v>
@@ -5036,16 +5096,16 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>0</v>
@@ -5084,7 +5144,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>16</v>
@@ -5093,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>0</v>
@@ -5132,13 +5192,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>9</v>
@@ -5175,16 +5235,16 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>0</v>
@@ -5221,18 +5281,18 @@
         <v>19</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>11</v>
@@ -5266,7 +5326,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
@@ -5275,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>11</v>
@@ -5314,13 +5374,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>0</v>
@@ -5351,16 +5411,19 @@
         <f aca="false">L73 + M73 +K73- (G73 + H73 + I73+J73)</f>
         <v>0</v>
       </c>
+      <c r="O73" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>0</v>
@@ -5394,16 +5457,16 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>0</v>
@@ -5442,13 +5505,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>1</v>
@@ -5482,13 +5545,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>9</v>
@@ -5525,13 +5588,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>3</v>
@@ -5566,18 +5629,18 @@
         <v>19</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>0</v>
@@ -5614,16 +5677,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>0</v>
@@ -5662,16 +5725,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>0</v>
@@ -5710,13 +5773,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>0</v>
@@ -5753,16 +5816,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>7</v>
@@ -5799,21 +5862,21 @@
         <v>19</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>0</v>
@@ -5853,13 +5916,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>0</v>
@@ -5890,16 +5953,19 @@
         <f aca="false">L85 + M85 +K85- (G85 + H85 + I85+J85)</f>
         <v>0</v>
       </c>
+      <c r="O85" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>0</v>
@@ -5930,19 +5996,22 @@
         <f aca="false">L86 + M86 +K86- (G86 + H86 + I86+J86)</f>
         <v>0</v>
       </c>
+      <c r="O86" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>12</v>
@@ -5981,16 +6050,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>0</v>
@@ -6029,13 +6098,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>12</v>
@@ -6072,13 +6141,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>12</v>
@@ -6115,16 +6184,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>11</v>
@@ -6161,18 +6230,18 @@
         <v>19</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E92" s="1" t="n">
         <v>1</v>
@@ -6206,13 +6275,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>0</v>
@@ -6243,16 +6312,19 @@
         <f aca="false">L93 + M93 +K93- (G93 + H93 + I93+J93)</f>
         <v>0</v>
       </c>
+      <c r="O93" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>1</v>
@@ -6289,13 +6361,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>0</v>
@@ -6330,18 +6402,18 @@
         <v>19</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>0</v>
@@ -6372,16 +6444,19 @@
         <f aca="false">L96 + M96 +K96- (G96 + H96 + I96+J96)</f>
         <v>0</v>
       </c>
+      <c r="O96" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>0</v>
@@ -6418,16 +6493,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>0</v>
@@ -6466,13 +6541,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>11</v>
@@ -6507,18 +6582,18 @@
         <v>19</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>0</v>
@@ -6549,10 +6624,13 @@
         <f aca="false">L100 + M100 +K100- (G100 + H100 + I100+J100)</f>
         <v>0</v>
       </c>
+      <c r="O100" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>21</v>
@@ -6561,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>0</v>
@@ -6600,7 +6678,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
@@ -6609,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E102" s="1" t="n">
         <v>10</v>
@@ -6646,18 +6724,18 @@
         <v>19</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E103" s="1" t="n">
         <v>0</v>
@@ -6694,7 +6772,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>21</v>
@@ -6703,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>12</v>
@@ -6742,22 +6820,22 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F105" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H105" s="5" t="n">
         <v>0</v>
@@ -6777,18 +6855,18 @@
       </c>
       <c r="N105" s="7" t="n">
         <f aca="false">L105 + M105 +K105- (G105 + H105 + I105+J105)</f>
-        <v>-15</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>2</v>
@@ -6822,7 +6900,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
@@ -6831,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>0</v>
@@ -6870,13 +6948,13 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>12</v>
@@ -6913,16 +6991,16 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>0</v>
@@ -6959,18 +7037,18 @@
         <v>19</v>
       </c>
       <c r="P109" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E110" s="1" t="n">
         <v>12</v>
@@ -7004,13 +7082,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E111" s="1" t="n">
         <v>0</v>
@@ -7044,7 +7122,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>16</v>
@@ -7053,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E112" s="1" t="n">
         <v>12</v>
@@ -7090,18 +7168,18 @@
         <v>19</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>0</v>
@@ -7138,13 +7216,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>0</v>
@@ -7175,16 +7253,19 @@
         <f aca="false">L114 + M114 +K114- (G114 + H114 + I114+J114)</f>
         <v>0</v>
       </c>
+      <c r="O114" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>11</v>
@@ -7221,13 +7302,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>0</v>
@@ -7264,13 +7345,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>0</v>
@@ -7307,13 +7388,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E118" s="1" t="n">
         <v>0</v>
@@ -7347,13 +7428,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>11</v>
@@ -7390,16 +7471,16 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>0</v>
@@ -7436,18 +7517,18 @@
         <v>19</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>0</v>
@@ -7478,16 +7559,19 @@
         <f aca="false">L121 + M121 +K121- (G121 + H121 + I121+J121)</f>
         <v>0</v>
       </c>
+      <c r="O121" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>12</v>
@@ -7522,12 +7606,12 @@
         <v>19</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>16</v>
@@ -7536,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>0</v>
@@ -7575,13 +7659,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>12</v>
@@ -7618,16 +7702,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>0</v>
@@ -7666,16 +7750,16 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>11</v>
@@ -7714,13 +7798,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E127" s="1" t="n">
         <v>12</v>
@@ -7757,13 +7841,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E128" s="1" t="n">
         <v>0</v>
@@ -7798,21 +7882,21 @@
         <v>19</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E129" s="1" t="n">
         <v>0</v>
@@ -7851,13 +7935,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E130" s="1" t="n">
         <v>0</v>
@@ -7894,13 +7978,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E131" s="1" t="n">
         <v>0</v>
@@ -7931,10 +8015,13 @@
         <f aca="false">L131 + M131 +K131- (G131 + H131 + I131+J131)</f>
         <v>0</v>
       </c>
+      <c r="O131" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>16</v>
@@ -7943,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E132" s="1" t="n">
         <v>0</v>
@@ -7982,13 +8069,13 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E133" s="1" t="n">
         <v>0</v>
@@ -8022,13 +8109,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E134" s="1" t="n">
         <v>0</v>
@@ -8065,16 +8152,16 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E135" s="1" t="n">
         <v>0</v>
@@ -8113,13 +8200,13 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E136" s="1" t="n">
         <v>1</v>
@@ -8156,13 +8243,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E137" s="1" t="n">
         <v>0</v>
@@ -8193,16 +8280,19 @@
         <f aca="false">L137 + M137 +K137- (G137 + H137 + I137+J137)</f>
         <v>0</v>
       </c>
+      <c r="O137" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E138" s="1" t="n">
         <v>0</v>
@@ -8239,16 +8329,16 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E139" s="1" t="n">
         <v>3</v>
@@ -8285,21 +8375,21 @@
         <v>19</v>
       </c>
       <c r="P139" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E140" s="1" t="n">
         <v>12</v>
@@ -8338,13 +8428,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E141" s="1" t="n">
         <v>9</v>
@@ -8381,13 +8471,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E142" s="1" t="n">
         <v>0</v>
@@ -8421,13 +8511,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E143" s="1" t="n">
         <v>0</v>
@@ -8461,22 +8551,22 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G144" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" s="5" t="n">
         <v>0</v>
@@ -8496,27 +8586,30 @@
       </c>
       <c r="N144" s="7" t="n">
         <f aca="false">L144 + M144 +K144- (G144 + H144 + I144+J144)</f>
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G145" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145" s="5" t="n">
         <v>0</v>
@@ -8536,7 +8629,10 @@
       </c>
       <c r="N145" s="7" t="n">
         <f aca="false">L145 + M145 +K145- (G145 + H145 + I145+J145)</f>
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
